--- a/Excel/RoomConfig.xlsx
+++ b/Excel/RoomConfig.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="C3:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F6" s="3">
         <v>100</v>
@@ -549,13 +549,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="4">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G7" s="4">
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
